--- a/biology/Médecine/Pseudocyesis/Pseudocyesis.xlsx
+++ b/biology/Médecine/Pseudocyesis/Pseudocyesis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pseudocyesis, aussi connu sous le nom de grossesse nerveuse, est une affection qui présente tous les symptômes de la grossesse ou de la gestation et qui y ressemble en tout point à l’exception de la présence d’un fœtus. Le terme « pseudocyesis » a été créé en 1923 par John Mason Good à partir des racines grecques pseudēs (faux) et κύησις kúēsis (conception). Il est moins négativement connoté que le terme « grossesse nerveuse ».
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une femme avec pseudocyesis peut vivre différents symptômes associés à la grossesse, comme l'interruption des règles, le développement du ventre et des seins, la lactation, les nausées matinales, la sensation d'un fœtus bougeant dans l'utérus, l'envie fréquente d'uriner[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une femme avec pseudocyesis peut vivre différents symptômes associés à la grossesse, comme l'interruption des règles, le développement du ventre et des seins, la lactation, les nausées matinales, la sensation d'un fœtus bougeant dans l'utérus, l'envie fréquente d'uriner.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Fréquence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un exemple historique de pseudocyesis est celui de la reine Marie Ire en 1555[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un exemple historique de pseudocyesis est celui de la reine Marie Ire en 1555.
 La pseudogestation est fréquente chez les mammifères. Elle est interprétée comme un moyen d’accroître l’apport de lait à la progéniture du groupe (chez les chats, les chiens, les rongeurs et les lagomorphes).
-Il survient également chez la femme[2], mais beaucoup plus rarement (incidence de 0,1 % relativement aux grossesses effectives à Paris). 
-Le pseudocyesis « touche des personnes d’ethnies, d’origines et de groupes socioéconomiques différents », y compris des femmes ménopausées[1]. En 2007, une étude publiée dans International Journal of Reproductive BioMedicine recense un à six pseudocyesis sur 22 000 grossesses, fréquence en nette diminution par rapport à 1940[1]. Les grossesses nerveuses dépendent de certains facteurs : elles surviennent plus fréquemment en Afrique, où la maternité revêt une grande importance[1]. Un trait commun aux femmes avec pseudocyesis serait leur aspiration intense à devenir enceintes ; les personnes concernées peuvent aussi souhaiter bénéficier de soins et d'attentions[1].
-Certains médecins plaident pour ne pas stigmatiser les femmes avec pseudocyesis : elles subissent un stress important et le monde médical se montre plus ouvert envers ces cas atypiques[1].
+Il survient également chez la femme, mais beaucoup plus rarement (incidence de 0,1 % relativement aux grossesses effectives à Paris). 
+Le pseudocyesis « touche des personnes d’ethnies, d’origines et de groupes socioéconomiques différents », y compris des femmes ménopausées. En 2007, une étude publiée dans International Journal of Reproductive BioMedicine recense un à six pseudocyesis sur 22 000 grossesses, fréquence en nette diminution par rapport à 1940. Les grossesses nerveuses dépendent de certains facteurs : elles surviennent plus fréquemment en Afrique, où la maternité revêt une grande importance. Un trait commun aux femmes avec pseudocyesis serait leur aspiration intense à devenir enceintes ; les personnes concernées peuvent aussi souhaiter bénéficier de soins et d'attentions.
+Certains médecins plaident pour ne pas stigmatiser les femmes avec pseudocyesis : elles subissent un stress important et le monde médical se montre plus ouvert envers ces cas atypiques.
 </t>
         </is>
       </c>
